--- a/spliced/struggle/2023-04-06_17-43-36/accelerometer_selected.xlsx
+++ b/spliced/struggle/2023-04-06_17-43-36/accelerometer_selected.xlsx
@@ -452,222 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.0029840469360351</v>
+        <v>0.0050287246704101</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1837852597236633</v>
+        <v>-0.5146583914756775</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2917509078979492</v>
+        <v>0.2250737845897674</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0050287246704101</v>
+        <v>-0.0246791839599609</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.5146583914756775</v>
+        <v>0.9255874156951904</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2250737845897674</v>
+        <v>-0.4234113097190857</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.0246791839599609</v>
+        <v>-0.3062458038330078</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9255874156951904</v>
+        <v>0.5210974216461182</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.4234113097190857</v>
+        <v>-0.6826221942901611</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.3062458038330078</v>
+        <v>-0.0336570739746093</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5210974216461182</v>
+        <v>-0.3159241676330566</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.6826221942901611</v>
+        <v>-2.89306116104126</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.0336570739746093</v>
+        <v>2.157181739807129</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.3159241676330566</v>
+        <v>0.2950803935527801</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.89306116104126</v>
+        <v>-5.19840145111084</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.157181739807129</v>
+        <v>0.2004642486572265</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2950803935527801</v>
+        <v>-0.8322474360466003</v>
       </c>
       <c r="C7" t="n">
-        <v>-5.19840145111084</v>
+        <v>-0.1898527145385742</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.2004642486572265</v>
+        <v>-2.500746965408325</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.8322474360466003</v>
+        <v>0.4417282938957214</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.1898527145385742</v>
+        <v>0.8889427185058594</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-2.500746965408325</v>
+        <v>-3.396578788757324</v>
       </c>
       <c r="B9" t="n">
-        <v>0.4417282938957214</v>
+        <v>1.112873911857605</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8889427185058594</v>
+        <v>1.645373344421387</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-3.396578788757324</v>
+        <v>-4.896120071411133</v>
       </c>
       <c r="B10" t="n">
-        <v>1.112873911857605</v>
+        <v>3.986298561096192</v>
       </c>
       <c r="C10" t="n">
-        <v>1.645373344421387</v>
+        <v>8.319293975830078</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-4.896120071411133</v>
+        <v>-3.247961044311523</v>
       </c>
       <c r="B11" t="n">
-        <v>3.986298561096192</v>
+        <v>1.173810482025146</v>
       </c>
       <c r="C11" t="n">
-        <v>8.319293975830078</v>
+        <v>-5.774084091186523</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-3.247961044311523</v>
+        <v>-0.8262515068054199</v>
       </c>
       <c r="B12" t="n">
-        <v>1.173810482025146</v>
+        <v>-2.918009757995605</v>
       </c>
       <c r="C12" t="n">
-        <v>-5.774084091186523</v>
+        <v>2.994272947311401</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.8262515068054199</v>
+        <v>-2.458094835281372</v>
       </c>
       <c r="B13" t="n">
-        <v>-2.918009757995605</v>
+        <v>-0.3888258635997772</v>
       </c>
       <c r="C13" t="n">
-        <v>2.994272947311401</v>
+        <v>-0.6840519905090332</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-2.458094835281372</v>
+        <v>-1.984735012054444</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.3888258635997772</v>
+        <v>2.097556114196777</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.6840519905090332</v>
+        <v>-3.859614849090576</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-1.984735012054444</v>
+        <v>-10.1377477645874</v>
       </c>
       <c r="B15" t="n">
-        <v>2.097556114196777</v>
+        <v>4.743382453918457</v>
       </c>
       <c r="C15" t="n">
-        <v>-3.859614849090576</v>
+        <v>-1.631471395492554</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-10.1377477645874</v>
+        <v>3.672384262084961</v>
       </c>
       <c r="B16" t="n">
-        <v>4.743382453918457</v>
+        <v>-0.4976945519447326</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.631471395492554</v>
+        <v>9.970148086547852</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3.672384262084961</v>
+        <v>-3.353246688842773</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.4976945519447326</v>
+        <v>0.9116206765174866</v>
       </c>
       <c r="C17" t="n">
-        <v>9.970148086547852</v>
+        <v>-0.0151057243347167</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-3.353246688842773</v>
+        <v>-1.351092576980591</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9116206765174866</v>
+        <v>1.431697487831116</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0151057243347167</v>
+        <v>2.426383018493652</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-1.351092576980591</v>
+        <v>-4.564205169677734</v>
       </c>
       <c r="B19" t="n">
-        <v>1.431697487831116</v>
+        <v>2.659675121307373</v>
       </c>
       <c r="C19" t="n">
-        <v>2.426383018493652</v>
+        <v>9.756929397583008</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-4.564205169677734</v>
+        <v>-0.1535825729370117</v>
       </c>
       <c r="B20" t="n">
-        <v>2.659675121307373</v>
+        <v>-2.909769535064697</v>
       </c>
       <c r="C20" t="n">
-        <v>9.756929397583008</v>
+        <v>-4.346651077270508</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.1535825729370117</v>
+        <v>-3.01861572265625</v>
       </c>
       <c r="B21" t="n">
-        <v>-2.909769535064697</v>
+        <v>-0.8810358047485352</v>
       </c>
       <c r="C21" t="n">
-        <v>-4.346651077270508</v>
+        <v>-0.5351743698120117</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/struggle/2023-04-06_17-43-36/accelerometer_selected.xlsx
+++ b/spliced/struggle/2023-04-06_17-43-36/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0050287246704101</v>
+        <v>-0.3062458038330078</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.5146583914756775</v>
+        <v>0.5210974216461182</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2250737845897674</v>
+        <v>-0.6826221942901611</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0246791839599609</v>
+        <v>-0.0336570739746093</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9255874156951904</v>
+        <v>-0.3159241676330566</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.4234113097190857</v>
+        <v>-2.89306116104126</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.3062458038330078</v>
+        <v>2.157181739807129</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5210974216461182</v>
+        <v>0.2950803935527801</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.6826221942901611</v>
+        <v>-5.19840145111084</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.0336570739746093</v>
+        <v>0.2004642486572265</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.3159241676330566</v>
+        <v>-0.8322474360466003</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.89306116104126</v>
+        <v>-0.1898527145385742</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.157181739807129</v>
+        <v>-2.500746965408325</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2950803935527801</v>
+        <v>0.4417282938957214</v>
       </c>
       <c r="C6" t="n">
-        <v>-5.19840145111084</v>
+        <v>0.8889427185058594</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.2004642486572265</v>
+        <v>-3.396578788757324</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.8322474360466003</v>
+        <v>1.112873911857605</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1898527145385742</v>
+        <v>1.645373344421387</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-2.500746965408325</v>
+        <v>-4.896120071411133</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4417282938957214</v>
+        <v>3.986298561096192</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8889427185058594</v>
+        <v>8.319293975830078</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-3.396578788757324</v>
+        <v>-3.247961044311523</v>
       </c>
       <c r="B9" t="n">
-        <v>1.112873911857605</v>
+        <v>1.173810482025146</v>
       </c>
       <c r="C9" t="n">
-        <v>1.645373344421387</v>
+        <v>-5.774084091186523</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-4.896120071411133</v>
+        <v>-0.8262515068054199</v>
       </c>
       <c r="B10" t="n">
-        <v>3.986298561096192</v>
+        <v>-2.918009757995605</v>
       </c>
       <c r="C10" t="n">
-        <v>8.319293975830078</v>
+        <v>2.994272947311401</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-3.247961044311523</v>
+        <v>-2.458094835281372</v>
       </c>
       <c r="B11" t="n">
-        <v>1.173810482025146</v>
+        <v>-0.3888258635997772</v>
       </c>
       <c r="C11" t="n">
-        <v>-5.774084091186523</v>
+        <v>-0.6840519905090332</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.8262515068054199</v>
+        <v>-1.984735012054444</v>
       </c>
       <c r="B12" t="n">
-        <v>-2.918009757995605</v>
+        <v>2.097556114196777</v>
       </c>
       <c r="C12" t="n">
-        <v>2.994272947311401</v>
+        <v>-3.859614849090576</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-2.458094835281372</v>
+        <v>-10.1377477645874</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.3888258635997772</v>
+        <v>4.743382453918457</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.6840519905090332</v>
+        <v>-1.631471395492554</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-1.984735012054444</v>
+        <v>3.672384262084961</v>
       </c>
       <c r="B14" t="n">
-        <v>2.097556114196777</v>
+        <v>-0.4976945519447326</v>
       </c>
       <c r="C14" t="n">
-        <v>-3.859614849090576</v>
+        <v>9.970148086547852</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-10.1377477645874</v>
+        <v>-3.353246688842773</v>
       </c>
       <c r="B15" t="n">
-        <v>4.743382453918457</v>
+        <v>0.9116206765174866</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.631471395492554</v>
+        <v>-0.0151057243347167</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3.672384262084961</v>
+        <v>-1.351092576980591</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.4976945519447326</v>
+        <v>1.431697487831116</v>
       </c>
       <c r="C16" t="n">
-        <v>9.970148086547852</v>
+        <v>2.426383018493652</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-3.353246688842773</v>
+        <v>-4.564205169677734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9116206765174866</v>
+        <v>2.659675121307373</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.0151057243347167</v>
+        <v>9.756929397583008</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-1.351092576980591</v>
+        <v>-0.1535825729370117</v>
       </c>
       <c r="B18" t="n">
-        <v>1.431697487831116</v>
+        <v>-2.909769535064697</v>
       </c>
       <c r="C18" t="n">
-        <v>2.426383018493652</v>
+        <v>-4.346651077270508</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-4.564205169677734</v>
+        <v>-3.01861572265625</v>
       </c>
       <c r="B19" t="n">
-        <v>2.659675121307373</v>
+        <v>-0.8810358047485352</v>
       </c>
       <c r="C19" t="n">
-        <v>9.756929397583008</v>
+        <v>-0.5351743698120117</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.1535825729370117</v>
+        <v>-3.367526054382324</v>
       </c>
       <c r="B20" t="n">
-        <v>-2.909769535064697</v>
+        <v>0.915987193584442</v>
       </c>
       <c r="C20" t="n">
-        <v>-4.346651077270508</v>
+        <v>-1.626443386077881</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-3.01861572265625</v>
+        <v>-1.118759155273438</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.8810358047485352</v>
+        <v>2.792432069778442</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.5351743698120117</v>
+        <v>-4.963344097137451</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-1.557756900787354</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.5582034587860107</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.2619988918304443</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1.715949058532715</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-1.576748490333557</v>
+      </c>
+      <c r="C23" t="n">
+        <v>5.096891403198242</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-0.8243503570556641</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.5943599939346313</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.927432060241699</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.2981023788452148</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.024843096733093</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.8517363667488098</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.4371089935302734</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.3337190449237823</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.154114544391632</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.5641984939575195</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.3292053341865539</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.326197862625122</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.131052017211914</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.5107872486114502</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.0540084838867187</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-0.1777238845825195</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.4102384448051452</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.1352127194404602</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.2971744537353515</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.0503720641136169</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.09675005078315729</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.1711950302124023</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.0577961653470993</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.0454300940036773</v>
       </c>
     </row>
   </sheetData>
